--- a/Graph Embedding/dblp/TEST/DBLP json분석.xlsx
+++ b/Graph Embedding/dblp/TEST/DBLP json분석.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeKihoon\PycharmProjects\KKK\Graph Embedding\dblp\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC40C3E1-61B7-4848-A067-C121A47D7939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6534A8B-49FE-4405-95DC-4CBC933285C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
     <t>Field Name</t>
   </si>
@@ -116,223 +116,233 @@
     <t>53e17f5b20f7dfbc07e8ac6e</t>
   </si>
   <si>
+    <t>paper venue name</t>
+  </si>
+  <si>
+    <t>Inteligencia Artificial, Revista Iberoamericana de Inteligencia Artificial</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>published year</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>list of strings</t>
+  </si>
+  <si>
+    <t>["data mining", "structured data", "world wide web", "social network", "relational data"]</t>
+  </si>
+  <si>
+    <t>fos.name</t>
+  </si>
+  <si>
+    <t>paper fields of study</t>
+  </si>
+  <si>
+    <t>Web mining</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>fields of study weight</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>paper references</t>
+  </si>
+  <si>
+    <t>["4909282", "16018031", "16159250",  "19838944", ...]</t>
+  </si>
+  <si>
+    <t>n_citation</t>
+  </si>
+  <si>
+    <t>citation number</t>
+  </si>
+  <si>
+    <t>page_start</t>
+  </si>
+  <si>
+    <t>page start</t>
+  </si>
+  <si>
+    <t>page_end</t>
+  </si>
+  <si>
+    <t>page end</t>
+  </si>
+  <si>
+    <t>doc_type</t>
+  </si>
+  <si>
+    <t>paper type: journal, book title...</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>detected language</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>issn</t>
+  </si>
+  <si>
+    <t>0020-7136</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>1-55860-489-8</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>10.4114/ia.v10i29.873</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>pdf URL</t>
+  </si>
+  <si>
+    <t>//static.aminer.org/upload/pdf/1254/ 370/239/53e9ab9eb7602d970354a97e.pdf</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>external links</t>
+  </si>
+  <si>
+    <t>["http://dx.doi.org/10.4114/ia.v10i29.873", "http://polar.lsi.uned.es/revista/index.php/ia/ article/view/479"]</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>Our ability to generate...</t>
+  </si>
+  <si>
+    <t>indexed_abstract</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>indexed abstract</t>
+  </si>
+  <si>
+    <t>{"IndexLength": 164, "Inverte dIndex": {"Our": [0], "ability": [1], "to": [2, 7, ...]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_zh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 딕셔너리로 제작 / 비어있는값확인 / 필요한것만 채워넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fos.w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>venue.raw</t>
-  </si>
-  <si>
-    <t>paper venue name</t>
-  </si>
-  <si>
-    <t>Inteligencia Artificial, Revista Iberoamericana de Inteligencia Artificial</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>published year</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>list of strings</t>
-  </si>
-  <si>
-    <t>["data mining", "structured data", "world wide web", "social network", "relational data"]</t>
-  </si>
-  <si>
-    <t>fos.name</t>
-  </si>
-  <si>
-    <t>paper fields of study</t>
-  </si>
-  <si>
-    <t>Web mining</t>
-  </si>
-  <si>
-    <t>fos.w</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>fields of study weight</t>
-  </si>
-  <si>
-    <t>references</t>
-  </si>
-  <si>
-    <t>paper references</t>
-  </si>
-  <si>
-    <t>["4909282", "16018031", "16159250",  "19838944", ...]</t>
-  </si>
-  <si>
-    <t>n_citation</t>
-  </si>
-  <si>
-    <t>citation number</t>
-  </si>
-  <si>
-    <t>page_start</t>
-  </si>
-  <si>
-    <t>page start</t>
-  </si>
-  <si>
-    <t>page_end</t>
-  </si>
-  <si>
-    <t>page end</t>
-  </si>
-  <si>
-    <t>doc_type</t>
-  </si>
-  <si>
-    <t>paper type: journal, book title...</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>lang</t>
-  </si>
-  <si>
-    <t>detected language</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t>Elsevier</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>issue</t>
-  </si>
-  <si>
-    <t>issn</t>
-  </si>
-  <si>
-    <t>0020-7136</t>
-  </si>
-  <si>
-    <t>isbn</t>
-  </si>
-  <si>
-    <t>1-55860-489-8</t>
-  </si>
-  <si>
-    <t>doi</t>
-  </si>
-  <si>
-    <t>10.4114/ia.v10i29.873</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>pdf URL</t>
-  </si>
-  <si>
-    <t>//static.aminer.org/upload/pdf/1254/ 370/239/53e9ab9eb7602d970354a97e.pdf</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>external links</t>
-  </si>
-  <si>
-    <t>["http://dx.doi.org/10.4114/ia.v10i29.873", "http://polar.lsi.uned.es/revista/index.php/ia/ article/view/479"]</t>
-  </si>
-  <si>
-    <t>abstract</t>
-  </si>
-  <si>
-    <t>Our ability to generate...</t>
-  </si>
-  <si>
-    <t>indexed_abstract</t>
-  </si>
-  <si>
-    <t>dict</t>
-  </si>
-  <si>
-    <t>indexed abstract</t>
-  </si>
-  <si>
-    <t>{"IndexLength": 164, "Inverte dIndex": {"Our": [0], "ability": [1], "to": [2, 7, ...]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>publisher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>venue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw_zh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로운 딕셔너리로 제작 / 비어있는값확인 / 필요한것만 채워넣기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +384,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +415,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -503,11 +519,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -530,6 +557,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -539,20 +582,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -837,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -890,11 +926,11 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -908,7 +944,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -920,18 +956,18 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>89</v>
+      <c r="F5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -944,15 +980,15 @@
         <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -964,148 +1000,148 @@
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="13" t="s">
-        <v>82</v>
+      <c r="F7" s="15"/>
+      <c r="G7" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>2000</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="13" t="s">
-        <v>84</v>
+      <c r="F9" s="16"/>
+      <c r="G9" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>80</v>
+      <c r="F10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D12" s="2">
         <v>0.65969085699999996</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="15" t="s">
-        <v>87</v>
+      <c r="F12" s="15"/>
+      <c r="G12" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
         <v>40829</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1">
         <v>11</v>
@@ -1113,13 +1149,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1">
         <v>18</v>
@@ -1127,55 +1163,58 @@
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>54</v>
+      <c r="E19" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1">
         <v>10</v>
@@ -1183,13 +1222,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1">
         <v>29</v>
@@ -1197,106 +1236,106 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
